--- a/pred_ohlcv/54_21/2019-10-24 SNT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-24 SNT ohlcv.xlsx
@@ -938,7 +938,7 @@
         <v>-807766.5450759435</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-807766.5450759435</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-807635.442134767</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-808997.1883347669</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-804910.3429347669</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-711058.5605347669</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-711781.5826347668</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-711770.5826347668</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-609526.5795582962</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-617822.5795582962</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-599574.4043758145</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-807625.9729758145</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-807525.9729758145</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-807525.9729758145</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-817857.1198758145</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-817857.1198758145</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-817857.1198758145</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-837222.4715758145</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-853566.8917758146</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-847586.8917758146</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-847586.8917758146</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-847586.8917758146</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-847586.8917758146</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-847586.8917758146</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-847586.8917758146</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-847586.8917758146</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-847586.8917758146</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-847586.8917758146</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-847586.8917758146</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-847586.8917758146</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-847586.8917758146</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-847586.8917758146</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-847586.8917758146</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-847586.8917758146</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-847586.8917758146</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-847586.8917758146</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-847586.8917758146</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-847586.8917758146</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-847586.8917758146</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-847586.8917758146</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-847586.8917758146</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-847586.8917758146</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-847586.8917758146</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-891390.5638758146</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>390590.9121241855</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>390590.9121241855</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>390590.9121241855</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>390590.9121241855</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>390590.9121241855</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>390590.9121241855</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>390590.9121241855</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>390590.9121241855</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>390590.9121241855</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>390590.9121241855</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>390590.9121241855</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>390590.9121241855</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>390590.9121241855</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>390590.9121241855</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>390590.9121241855</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>390590.9121241855</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>390590.9121241855</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>403704.8091241855</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-24 SNT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-24 SNT ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-780626.8891759436</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-780626.8891759436</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-780626.8891759436</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-782558.5928759435</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-782558.5928759435</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-782558.5928759435</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-782558.5928759435</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-782558.5928759435</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-782558.5928759435</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-782558.5928759435</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-782558.5928759435</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-816120.5928759435</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-807766.5450759435</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-807635.442134767</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-811506.3675347669</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-808997.1883347669</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-804910.3429347669</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-711058.5605347669</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-711781.5826347668</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-711770.5826347668</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-711770.5826347668</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-675005.8768347668</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-676925.6255347668</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-640301.2873347668</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-645325.8495582963</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-645325.8495582963</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-599574.4043758145</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-807525.9729758145</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-807525.9729758145</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-817857.1198758145</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-817857.1198758145</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-817857.1198758145</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-837222.4715758145</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-853566.8917758146</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-847586.8917758146</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-847586.8917758146</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-847586.8917758146</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-847586.8917758146</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-847586.8917758146</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-847586.8917758146</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-847586.8917758146</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-847586.8917758146</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-847586.8917758146</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-847586.8917758146</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-847586.8917758146</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-847586.8917758146</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-847586.8917758146</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-847586.8917758146</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-847586.8917758146</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-847586.8917758146</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-847586.8917758146</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-847586.8917758146</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-847586.8917758146</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-847586.8917758146</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-847586.8917758146</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-847586.8917758146</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-847586.8917758146</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-847586.8917758146</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-891390.5638758146</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>390590.9121241855</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>390590.9121241855</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>390590.9121241855</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>390590.9121241855</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>390590.9121241855</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>390590.9121241855</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>390590.9121241855</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>390590.9121241855</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>390590.9121241855</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>390590.9121241855</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>390590.9121241855</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>390590.9121241855</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>390590.9121241855</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>390590.9121241855</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>390590.9121241855</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>390590.9121241855</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>390590.9121241855</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>390590.9121241855</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
